--- a/public/excel_sample/product-sample.xlsx
+++ b/public/excel_sample/product-sample.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\do_an_3\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\do_an_3\public\excel_sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{29532FB4-A5DA-48B5-BFFD-B2DC5844046E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>Tên sản phẩm</t>
   </si>
@@ -64,12 +63,33 @@
   </si>
   <si>
     <t>Test Excel 2</t>
+  </si>
+  <si>
+    <t>Bảo hành</t>
+  </si>
+  <si>
+    <t>Không bảo hành</t>
+  </si>
+  <si>
+    <t>6 tháng</t>
+  </si>
+  <si>
+    <t>Test Excel 3</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>Laptop gaming</t>
+  </si>
+  <si>
+    <t>1 năm</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -381,11 +401,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G1:G3"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -393,11 +413,10 @@
     <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="46.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.77734375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -416,8 +435,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
+      <c r="G1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -436,8 +458,11 @@
       <c r="F2" t="s">
         <v>10</v>
       </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -455,6 +480,32 @@
       </c>
       <c r="F3" t="s">
         <v>11</v>
+      </c>
+      <c r="G3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4">
+        <v>12000000</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/public/excel_sample/product-sample.xlsx
+++ b/public/excel_sample/product-sample.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Tên sản phẩm</t>
   </si>
@@ -32,9 +32,6 @@
     <t>Giá</t>
   </si>
   <si>
-    <t>Mô tả</t>
-  </si>
-  <si>
     <t>Giảm giá</t>
   </si>
   <si>
@@ -45,9 +42,6 @@
   </si>
   <si>
     <t>Test Excel 1</t>
-  </si>
-  <si>
-    <t>Lorem ipsum dolor sit amet, consectetur adipiscing elit.</t>
   </si>
   <si>
     <t>LG</t>
@@ -119,9 +113,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -402,21 +395,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="46.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="16" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="16" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -433,79 +425,67 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
         <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>6</v>
       </c>
       <c r="B2">
         <v>10000000</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2">
+      <c r="C2">
         <v>5</v>
+      </c>
+      <c r="D2" t="s">
+        <v>6</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
       </c>
       <c r="F2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>12</v>
       </c>
       <c r="B3">
         <v>15000000</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3" t="s">
         <v>7</v>
-      </c>
-      <c r="D3">
-        <v>0</v>
       </c>
       <c r="E3" t="s">
         <v>9</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B4">
         <v>12000000</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="D4">
+      <c r="C4">
         <v>5</v>
       </c>
+      <c r="D4" t="s">
+        <v>15</v>
+      </c>
       <c r="E4" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" t="s">
         <v>17</v>
-      </c>
-      <c r="F4" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>
